--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/Белалко/Белалко от 24.05.2021.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/Белалко/Белалко от 24.05.2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\Белалко\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3EC631-07CF-4FF1-80AB-2B73762BFFC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804829A3-5C13-489A-82D0-4816DDC3509C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3526,8 +3526,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3659,12 +3657,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3709,34 +3701,49 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3773,15 +3780,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3791,33 +3789,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -3917,40 +3945,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3970,84 +4046,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4078,35 +4076,41 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6805,7 +6809,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6817,25 +6821,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="509" t="s">
+      <c r="A1" s="505" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="510" t="s">
+      <c r="A2" s="506" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="511"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
-      <c r="E2" s="512"/>
+      <c r="B2" s="507"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="508"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6846,45 +6850,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="514" t="s">
+      <c r="A4" s="510" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="515"/>
-      <c r="C4" s="515"/>
-      <c r="D4" s="515"/>
-      <c r="E4" s="515"/>
+      <c r="B4" s="511"/>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="516" t="s">
+      <c r="A5" s="512" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="517"/>
-      <c r="C5" s="517"/>
-      <c r="D5" s="517"/>
-      <c r="E5" s="518"/>
+      <c r="B5" s="513"/>
+      <c r="C5" s="513"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="514"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="509" t="s">
+      <c r="A7" s="505" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="513"/>
-      <c r="C7" s="513"/>
-      <c r="D7" s="513"/>
-      <c r="E7" s="513"/>
+      <c r="B7" s="509"/>
+      <c r="C7" s="509"/>
+      <c r="D7" s="509"/>
+      <c r="E7" s="509"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="519"/>
-      <c r="B8" s="520"/>
-      <c r="C8" s="520"/>
-      <c r="D8" s="520"/>
-      <c r="E8" s="521"/>
+      <c r="A8" s="515"/>
+      <c r="B8" s="516"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="516"/>
+      <c r="E8" s="517"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="509" t="s">
+      <c r="A10" s="505" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="509"/>
+      <c r="B10" s="505"/>
       <c r="C10" s="364"/>
       <c r="D10" s="369" t="s">
         <v>93</v>
@@ -6895,33 +6899,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="507"/>
-      <c r="B11" s="508"/>
-      <c r="D11" s="492">
+      <c r="A11" s="503"/>
+      <c r="B11" s="504"/>
+      <c r="D11" s="490">
         <v>44340</v>
       </c>
-      <c r="F11" s="504" t="s">
+      <c r="F11" s="518" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="504"/>
-      <c r="H11" s="504"/>
-      <c r="I11" s="504"/>
-      <c r="J11" s="505" t="s">
+      <c r="G11" s="518"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="519" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="505"/>
+      <c r="K11" s="519"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="504" t="s">
+      <c r="F12" s="518" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="504"/>
-      <c r="H12" s="504"/>
-      <c r="I12" s="504"/>
-      <c r="J12" s="505" t="s">
+      <c r="G12" s="518"/>
+      <c r="H12" s="518"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="519" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="505"/>
+      <c r="K12" s="519"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
@@ -6936,19 +6940,19 @@
       <c r="D13" s="373" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="473" t="s">
+      <c r="E13" s="471" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="504" t="s">
+      <c r="F13" s="518" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="504"/>
-      <c r="H13" s="504"/>
-      <c r="I13" s="504"/>
-      <c r="J13" s="505" t="s">
+      <c r="G13" s="518"/>
+      <c r="H13" s="518"/>
+      <c r="I13" s="518"/>
+      <c r="J13" s="519" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="505"/>
+      <c r="K13" s="519"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -6967,16 +6971,16 @@
         <f>B14*D14</f>
         <v>780</v>
       </c>
-      <c r="F14" s="504" t="s">
+      <c r="F14" s="518" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="504"/>
-      <c r="H14" s="504"/>
-      <c r="I14" s="504"/>
-      <c r="J14" s="505" t="s">
+      <c r="G14" s="518"/>
+      <c r="H14" s="518"/>
+      <c r="I14" s="518"/>
+      <c r="J14" s="519" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="505"/>
+      <c r="K14" s="519"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="365" t="s">
@@ -7196,7 +7200,7 @@
       <c r="A28" s="367" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="491"/>
+      <c r="B28" s="489"/>
       <c r="C28" s="371"/>
       <c r="D28" s="366"/>
       <c r="E28" s="366"/>
@@ -7205,7 +7209,7 @@
       <c r="A29" s="367" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="491"/>
+      <c r="B29" s="489"/>
       <c r="C29" s="371"/>
       <c r="D29" s="366"/>
       <c r="E29" s="366"/>
@@ -7226,11 +7230,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="506" t="s">
+      <c r="A31" s="502" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="506"/>
-      <c r="C31" s="506"/>
+      <c r="B31" s="502"/>
+      <c r="C31" s="502"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="363" t="s">
@@ -7239,6 +7243,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7248,14 +7260,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7309,47 +7313,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="613"/>
-      <c r="C2" s="614"/>
-      <c r="D2" s="615"/>
-      <c r="E2" s="622" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="628" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="629"/>
-      <c r="K2" s="632">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="633"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="616"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="618"/>
-      <c r="E3" s="625" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="627"/>
-      <c r="I3" s="630"/>
-      <c r="J3" s="631"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="635"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7360,9 +7364,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="619"/>
-      <c r="C4" s="620"/>
-      <c r="D4" s="621"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7381,22 +7385,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7407,22 +7411,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7433,27 +7437,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="519">
+      <c r="C7" s="635"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="507">
+      <c r="J7" s="635"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7820,33 +7824,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="639" t="s">
+      <c r="L21" s="637" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="639"/>
-      <c r="N21" s="639"/>
-      <c r="O21" s="474"/>
-      <c r="P21" s="474"/>
-      <c r="Q21" s="490"/>
-      <c r="R21" s="490"/>
+      <c r="M21" s="637"/>
+      <c r="N21" s="637"/>
+      <c r="O21" s="472"/>
+      <c r="P21" s="472"/>
+      <c r="Q21" s="488"/>
+      <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="561" t="s">
+      <c r="O22" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="561"/>
-      <c r="Q22" s="562" t="s">
+      <c r="P22" s="569"/>
+      <c r="Q22" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R22" s="563"/>
+      <c r="R22" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7863,6 +7862,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7928,47 +7932,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="613"/>
-      <c r="C2" s="614"/>
-      <c r="D2" s="615"/>
-      <c r="E2" s="622" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="628" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="629"/>
-      <c r="K2" s="632">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="633"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="649"/>
-      <c r="Q2" s="649"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="616"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="618"/>
-      <c r="E3" s="625" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="627"/>
-      <c r="I3" s="630"/>
-      <c r="J3" s="631"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="635"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7979,9 +7983,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="619"/>
-      <c r="C4" s="620"/>
-      <c r="D4" s="621"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8000,22 +8004,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -8026,22 +8030,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8052,27 +8056,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="519">
+      <c r="C7" s="635"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="507">
+      <c r="J7" s="635"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8385,12 +8389,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="650" t="s">
+      <c r="B18" s="647" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="651"/>
-      <c r="D18" s="651"/>
-      <c r="E18" s="652"/>
+      <c r="C18" s="648"/>
+      <c r="D18" s="648"/>
+      <c r="E18" s="649"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8433,37 +8437,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="639" t="s">
+      <c r="L21" s="637" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="639"/>
-      <c r="N21" s="639"/>
-      <c r="O21" s="474"/>
-      <c r="P21" s="474"/>
-      <c r="Q21" s="490"/>
-      <c r="R21" s="490"/>
+      <c r="M21" s="637"/>
+      <c r="N21" s="637"/>
+      <c r="O21" s="472"/>
+      <c r="P21" s="472"/>
+      <c r="Q21" s="488"/>
+      <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="561" t="s">
+      <c r="O22" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="561"/>
-      <c r="Q22" s="562" t="s">
+      <c r="P22" s="569"/>
+      <c r="Q22" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R22" s="563"/>
+      <c r="R22" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8477,6 +8472,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8551,47 +8555,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="613"/>
-      <c r="C2" s="614"/>
-      <c r="D2" s="615"/>
-      <c r="E2" s="622" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="628" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="629"/>
-      <c r="K2" s="632">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="633"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="653"/>
-      <c r="Q2" s="653"/>
+      <c r="P2" s="651"/>
+      <c r="Q2" s="651"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="616"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="618"/>
-      <c r="E3" s="625" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="627"/>
-      <c r="I3" s="630"/>
-      <c r="J3" s="631"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="635"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8602,9 +8606,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="619"/>
-      <c r="C4" s="620"/>
-      <c r="D4" s="621"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8623,22 +8627,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8649,22 +8653,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8675,27 +8679,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="519">
+      <c r="C7" s="635"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="507">
+      <c r="J7" s="635"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8998,33 +9002,28 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="639" t="s">
+      <c r="L19" s="637" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="639"/>
-      <c r="N19" s="639"/>
-      <c r="O19" s="474"/>
-      <c r="P19" s="474"/>
-      <c r="Q19" s="490"/>
-      <c r="R19" s="490"/>
+      <c r="M19" s="637"/>
+      <c r="N19" s="637"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="561" t="s">
+      <c r="O20" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="561"/>
-      <c r="Q20" s="562" t="s">
+      <c r="P20" s="569"/>
+      <c r="Q20" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R20" s="563"/>
+      <c r="R20" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9041,6 +9040,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9097,47 +9101,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="613"/>
-      <c r="C2" s="614"/>
-      <c r="D2" s="615"/>
-      <c r="E2" s="622" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="628" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="629"/>
-      <c r="K2" s="655">
+      <c r="J2" s="624"/>
+      <c r="K2" s="652">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="656"/>
+      <c r="L2" s="653"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="654"/>
-      <c r="Q2" s="654"/>
+      <c r="P2" s="656"/>
+      <c r="Q2" s="656"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="616"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="618"/>
-      <c r="E3" s="625" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="627"/>
-      <c r="I3" s="630"/>
-      <c r="J3" s="631"/>
-      <c r="K3" s="657"/>
-      <c r="L3" s="658"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="654"/>
+      <c r="L3" s="655"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9148,9 +9152,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="619"/>
-      <c r="C4" s="620"/>
-      <c r="D4" s="621"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9169,22 +9173,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9195,22 +9199,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9221,27 +9225,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="519">
+      <c r="C7" s="635"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="507">
+      <c r="J7" s="635"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9505,33 +9509,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="639" t="s">
+      <c r="L18" s="637" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="639"/>
-      <c r="N18" s="639"/>
-      <c r="O18" s="474"/>
-      <c r="P18" s="474"/>
-      <c r="Q18" s="490"/>
-      <c r="R18" s="490"/>
+      <c r="M18" s="637"/>
+      <c r="N18" s="637"/>
+      <c r="O18" s="472"/>
+      <c r="P18" s="472"/>
+      <c r="Q18" s="488"/>
+      <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="561" t="s">
+      <c r="O19" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="561"/>
-      <c r="Q19" s="562" t="s">
+      <c r="P19" s="569"/>
+      <c r="Q19" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R19" s="563"/>
+      <c r="R19" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9548,6 +9547,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9577,7 +9581,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E32" sqref="E32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9598,11 +9602,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="379"/>
-      <c r="B1" s="472" t="s">
+      <c r="B1" s="470" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="379"/>
-      <c r="D1" s="471" t="str">
+      <c r="D1" s="469" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
@@ -9632,17 +9636,17 @@
       <c r="L2" s="380"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="527" t="s">
+      <c r="A3" s="522" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="527"/>
-      <c r="C3" s="527"/>
-      <c r="D3" s="527"/>
-      <c r="E3" s="527"/>
-      <c r="F3" s="527"/>
-      <c r="G3" s="527"/>
-      <c r="H3" s="527"/>
-      <c r="I3" s="527"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
       <c r="K3" s="381"/>
       <c r="L3" s="381"/>
       <c r="M3" s="382"/>
@@ -9955,7 +9959,7 @@
         <f>Данные!$B22</f>
         <v>24</v>
       </c>
-      <c r="E14" s="470">
+      <c r="E14" s="468">
         <v>24</v>
       </c>
       <c r="F14" s="378"/>
@@ -10132,33 +10136,33 @@
         <v>16800000</v>
       </c>
       <c r="B21" s="422">
-        <v>43759</v>
+        <v>44375</v>
       </c>
       <c r="C21" s="423">
-        <v>43765</v>
+        <v>44377</v>
       </c>
       <c r="D21" s="422">
-        <v>43769</v>
+        <v>44378</v>
       </c>
       <c r="E21" s="424">
-        <v>948096</v>
+        <v>450576</v>
       </c>
       <c r="F21" s="424">
-        <v>1031915</v>
+        <v>489940</v>
       </c>
       <c r="G21" s="425">
         <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
+        <v>2.9163095238095238E-2</v>
       </c>
       <c r="H21" s="426">
         <f>A21-F21</f>
-        <v>15768085</v>
+        <v>16310060</v>
       </c>
       <c r="I21" s="427">
         <f>1-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="497"/>
+        <v>0.97083690476190476</v>
+      </c>
+      <c r="J21" s="495"/>
       <c r="K21" s="402"/>
       <c r="L21" s="402"/>
     </row>
@@ -10175,13 +10179,13 @@
       </c>
       <c r="H22" s="432">
         <f>H21-F22</f>
-        <v>15768085</v>
+        <v>16310060</v>
       </c>
       <c r="I22" s="433">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J22" s="497"/>
+        <v>0.97083690476190476</v>
+      </c>
+      <c r="J22" s="495"/>
       <c r="K22" s="382"/>
       <c r="L22" s="382"/>
     </row>
@@ -10195,7 +10199,7 @@
       <c r="G23" s="437"/>
       <c r="H23" s="438"/>
       <c r="I23" s="439"/>
-      <c r="J23" s="498"/>
+      <c r="J23" s="496"/>
       <c r="K23" s="402"/>
       <c r="L23" s="402"/>
     </row>
@@ -10209,7 +10213,7 @@
       <c r="G24" s="374"/>
       <c r="H24" s="374"/>
       <c r="I24" s="440"/>
-      <c r="J24" s="499"/>
+      <c r="J24" s="497"/>
       <c r="K24" s="428"/>
       <c r="L24" s="382"/>
     </row>
@@ -10223,7 +10227,7 @@
       <c r="G25" s="441"/>
       <c r="H25" s="438"/>
       <c r="I25" s="439"/>
-      <c r="J25" s="498"/>
+      <c r="J25" s="496"/>
       <c r="K25" s="442"/>
       <c r="L25" s="382"/>
     </row>
@@ -10237,7 +10241,7 @@
       <c r="G26" s="441"/>
       <c r="H26" s="438"/>
       <c r="I26" s="439"/>
-      <c r="J26" s="498"/>
+      <c r="J26" s="496"/>
       <c r="K26" s="428"/>
       <c r="L26" s="382"/>
     </row>
@@ -10251,7 +10255,7 @@
       <c r="G27" s="441"/>
       <c r="H27" s="438"/>
       <c r="I27" s="439"/>
-      <c r="J27" s="498"/>
+      <c r="J27" s="496"/>
       <c r="K27" s="428"/>
       <c r="L27" s="382"/>
     </row>
@@ -10265,7 +10269,7 @@
       <c r="G28" s="441"/>
       <c r="H28" s="438"/>
       <c r="I28" s="439"/>
-      <c r="J28" s="498"/>
+      <c r="J28" s="496"/>
       <c r="K28" s="428"/>
       <c r="L28" s="382"/>
     </row>
@@ -10279,7 +10283,7 @@
       <c r="G29" s="443"/>
       <c r="H29" s="438"/>
       <c r="I29" s="444"/>
-      <c r="J29" s="500"/>
+      <c r="J29" s="498"/>
       <c r="K29" s="428"/>
       <c r="L29" s="382"/>
     </row>
@@ -10293,7 +10297,7 @@
       <c r="G30" s="441"/>
       <c r="H30" s="438"/>
       <c r="I30" s="444"/>
-      <c r="J30" s="501" t="s">
+      <c r="J30" s="499" t="s">
         <v>42</v>
       </c>
       <c r="K30" s="428"/>
@@ -10309,7 +10313,7 @@
       <c r="G31" s="449"/>
       <c r="H31" s="450"/>
       <c r="I31" s="451"/>
-      <c r="J31" s="502"/>
+      <c r="J31" s="500"/>
       <c r="K31" s="382"/>
       <c r="L31" s="382"/>
     </row>
@@ -10320,29 +10324,29 @@
       <c r="B32" s="453"/>
       <c r="C32" s="453"/>
       <c r="D32" s="454"/>
-      <c r="E32" s="455">
+      <c r="E32" s="657">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="456">
+        <v>450576</v>
+      </c>
+      <c r="F32" s="658">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="457">
+        <v>489940</v>
+      </c>
+      <c r="G32" s="455">
         <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H32" s="458">
+        <v>2.9163095238095238E-2</v>
+      </c>
+      <c r="H32" s="456">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="I32" s="459">
+        <v>16310060</v>
+      </c>
+      <c r="I32" s="457">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J32" s="503"/>
-      <c r="K32" s="460"/>
-      <c r="L32" s="460"/>
+        <v>0.97083690476190476</v>
+      </c>
+      <c r="J32" s="501"/>
+      <c r="K32" s="458"/>
+      <c r="L32" s="458"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="382"/>
@@ -10357,12 +10361,12 @@
       <c r="J35" s="382"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="528" t="s">
+      <c r="A36" s="523" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="528"/>
-      <c r="C36" s="528"/>
-      <c r="D36" s="528"/>
+      <c r="B36" s="523"/>
+      <c r="C36" s="523"/>
+      <c r="D36" s="523"/>
       <c r="E36" s="382"/>
       <c r="F36" s="382"/>
       <c r="G36" s="382"/>
@@ -10371,14 +10375,14 @@
       <c r="J36" s="382"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="529" t="s">
+      <c r="A37" s="524" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="529"/>
-      <c r="C37" s="461" t="s">
+      <c r="B37" s="524"/>
+      <c r="C37" s="459" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="461" t="s">
+      <c r="D37" s="459" t="s">
         <v>132</v>
       </c>
       <c r="E37" s="382"/>
@@ -10389,27 +10393,27 @@
       <c r="J37" s="382"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="530">
+      <c r="A38" s="525">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="531"/>
-      <c r="C38" s="462">
+        <v>16310060</v>
+      </c>
+      <c r="B38" s="526"/>
+      <c r="C38" s="460">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D38" s="463">
+        <v>0.97083690476190476</v>
+      </c>
+      <c r="D38" s="461">
         <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
-      </c>
-      <c r="E38" s="464" t="s">
+        <v>121.35461309523809</v>
+      </c>
+      <c r="E38" s="462" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="464"/>
-      <c r="G38" s="464"/>
-      <c r="H38" s="464"/>
-      <c r="I38" s="464"/>
-      <c r="J38" s="464"/>
+      <c r="F38" s="462"/>
+      <c r="G38" s="462"/>
+      <c r="H38" s="462"/>
+      <c r="I38" s="462"/>
+      <c r="J38" s="462"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="382"/>
@@ -10436,8 +10440,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="382"/>
-      <c r="B41" s="465"/>
-      <c r="C41" s="465"/>
+      <c r="B41" s="463"/>
+      <c r="C41" s="463"/>
       <c r="D41" s="382"/>
       <c r="E41" s="382"/>
       <c r="F41" s="382"/>
@@ -10447,113 +10451,113 @@
       <c r="J41" s="382"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="466"/>
-      <c r="B42" s="466"/>
-      <c r="C42" s="466"/>
-      <c r="D42" s="466"/>
-      <c r="E42" s="466"/>
-      <c r="F42" s="466"/>
-      <c r="G42" s="466"/>
-      <c r="H42" s="466"/>
-      <c r="I42" s="522"/>
-      <c r="J42" s="523"/>
+      <c r="A42" s="464"/>
+      <c r="B42" s="464"/>
+      <c r="C42" s="464"/>
+      <c r="D42" s="464"/>
+      <c r="E42" s="464"/>
+      <c r="F42" s="464"/>
+      <c r="G42" s="464"/>
+      <c r="H42" s="464"/>
+      <c r="I42" s="527"/>
+      <c r="J42" s="528"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="467"/>
-      <c r="B43" s="468"/>
-      <c r="C43" s="468"/>
+      <c r="A43" s="465"/>
+      <c r="B43" s="466"/>
+      <c r="C43" s="466"/>
       <c r="D43" s="382"/>
       <c r="E43" s="382"/>
-      <c r="F43" s="468"/>
+      <c r="F43" s="466"/>
       <c r="G43" s="412"/>
-      <c r="H43" s="468"/>
+      <c r="H43" s="466"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="467"/>
-      <c r="B44" s="468"/>
-      <c r="C44" s="468"/>
-      <c r="D44" s="468"/>
-      <c r="E44" s="468"/>
-      <c r="F44" s="468"/>
+      <c r="A44" s="465"/>
+      <c r="B44" s="466"/>
+      <c r="C44" s="466"/>
+      <c r="D44" s="466"/>
+      <c r="E44" s="466"/>
+      <c r="F44" s="466"/>
       <c r="G44" s="412"/>
-      <c r="H44" s="468"/>
+      <c r="H44" s="466"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="467"/>
-      <c r="B45" s="468"/>
-      <c r="C45" s="468"/>
+      <c r="A45" s="465"/>
+      <c r="B45" s="466"/>
+      <c r="C45" s="466"/>
       <c r="D45" s="382"/>
       <c r="E45" s="382"/>
-      <c r="F45" s="468"/>
+      <c r="F45" s="466"/>
       <c r="G45" s="412"/>
-      <c r="H45" s="468"/>
+      <c r="H45" s="466"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="467"/>
-      <c r="B46" s="468"/>
-      <c r="C46" s="468"/>
-      <c r="D46" s="468"/>
-      <c r="E46" s="468"/>
-      <c r="F46" s="468"/>
+      <c r="A46" s="465"/>
+      <c r="B46" s="466"/>
+      <c r="C46" s="466"/>
+      <c r="D46" s="466"/>
+      <c r="E46" s="466"/>
+      <c r="F46" s="466"/>
       <c r="G46" s="412"/>
-      <c r="H46" s="468"/>
+      <c r="H46" s="466"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="467"/>
-      <c r="B47" s="468"/>
-      <c r="C47" s="468"/>
+      <c r="A47" s="465"/>
+      <c r="B47" s="466"/>
+      <c r="C47" s="466"/>
       <c r="D47" s="382"/>
       <c r="E47" s="382"/>
-      <c r="F47" s="468"/>
+      <c r="F47" s="466"/>
       <c r="G47" s="412"/>
-      <c r="H47" s="468"/>
+      <c r="H47" s="466"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="467"/>
-      <c r="B48" s="468"/>
+      <c r="A48" s="465"/>
+      <c r="B48" s="466"/>
       <c r="C48" s="402"/>
-      <c r="D48" s="469"/>
-      <c r="E48" s="469"/>
+      <c r="D48" s="467"/>
+      <c r="E48" s="467"/>
       <c r="F48" s="402"/>
       <c r="G48" s="402"/>
       <c r="H48" s="402"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="467"/>
-      <c r="B49" s="468"/>
-      <c r="C49" s="468"/>
-      <c r="D49" s="468"/>
-      <c r="E49" s="468"/>
-      <c r="F49" s="468"/>
+      <c r="A49" s="465"/>
+      <c r="B49" s="466"/>
+      <c r="C49" s="466"/>
+      <c r="D49" s="466"/>
+      <c r="E49" s="466"/>
+      <c r="F49" s="466"/>
       <c r="G49" s="412"/>
-      <c r="H49" s="468"/>
+      <c r="H49" s="466"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="467"/>
-      <c r="B50" s="468"/>
-      <c r="C50" s="468"/>
-      <c r="D50" s="468"/>
-      <c r="E50" s="468"/>
-      <c r="F50" s="468"/>
+      <c r="A50" s="465"/>
+      <c r="B50" s="466"/>
+      <c r="C50" s="466"/>
+      <c r="D50" s="466"/>
+      <c r="E50" s="466"/>
+      <c r="F50" s="466"/>
       <c r="G50" s="412"/>
-      <c r="H50" s="468"/>
+      <c r="H50" s="466"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="467"/>
-      <c r="B51" s="468"/>
-      <c r="C51" s="468"/>
+      <c r="A51" s="465"/>
+      <c r="B51" s="466"/>
+      <c r="C51" s="466"/>
       <c r="D51" s="382"/>
       <c r="E51" s="382"/>
-      <c r="F51" s="468"/>
+      <c r="F51" s="466"/>
       <c r="G51" s="412"/>
-      <c r="H51" s="468"/>
+      <c r="H51" s="466"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="382"/>
-      <c r="B52" s="525"/>
-      <c r="C52" s="525"/>
-      <c r="D52" s="526"/>
-      <c r="E52" s="464"/>
+      <c r="B52" s="520"/>
+      <c r="C52" s="520"/>
+      <c r="D52" s="521"/>
+      <c r="E52" s="462"/>
       <c r="F52" s="382"/>
       <c r="G52" s="382"/>
       <c r="H52" s="382"/>
@@ -10561,31 +10565,31 @@
       <c r="J52" s="382"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="466"/>
-      <c r="B53" s="466"/>
-      <c r="C53" s="466"/>
-      <c r="D53" s="466"/>
-      <c r="E53" s="466"/>
-      <c r="F53" s="466"/>
-      <c r="G53" s="466"/>
-      <c r="H53" s="466"/>
-      <c r="I53" s="522"/>
-      <c r="J53" s="523"/>
+      <c r="A53" s="464"/>
+      <c r="B53" s="464"/>
+      <c r="C53" s="464"/>
+      <c r="D53" s="464"/>
+      <c r="E53" s="464"/>
+      <c r="F53" s="464"/>
+      <c r="G53" s="464"/>
+      <c r="H53" s="464"/>
+      <c r="I53" s="527"/>
+      <c r="J53" s="528"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="467"/>
+      <c r="A54" s="465"/>
       <c r="B54" s="382"/>
       <c r="C54" s="382"/>
       <c r="D54" s="382"/>
       <c r="E54" s="382"/>
       <c r="F54" s="412"/>
       <c r="G54" s="412"/>
-      <c r="H54" s="468"/>
-      <c r="I54" s="524"/>
-      <c r="J54" s="524"/>
+      <c r="H54" s="466"/>
+      <c r="I54" s="529"/>
+      <c r="J54" s="529"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="467"/>
+      <c r="A55" s="465"/>
       <c r="B55" s="382"/>
       <c r="C55" s="382"/>
       <c r="D55" s="402"/>
@@ -10593,8 +10597,8 @@
       <c r="F55" s="402"/>
       <c r="G55" s="402"/>
       <c r="H55" s="402"/>
-      <c r="I55" s="524"/>
-      <c r="J55" s="524"/>
+      <c r="I55" s="529"/>
+      <c r="J55" s="529"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="382"/>
@@ -10607,26 +10611,26 @@
       <c r="H56" s="382"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="522"/>
-      <c r="C61" s="523"/>
+      <c r="B61" s="527"/>
+      <c r="C61" s="528"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="522"/>
-      <c r="C68" s="523"/>
+      <c r="B68" s="527"/>
+      <c r="C68" s="528"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10709,47 +10713,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="557" t="s">
+      <c r="A11" s="554" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="557"/>
-      <c r="C11" s="557"/>
-      <c r="D11" s="557"/>
-      <c r="E11" s="557"/>
-      <c r="F11" s="557"/>
-      <c r="G11" s="557"/>
-      <c r="H11" s="557"/>
-      <c r="I11" s="557"/>
-      <c r="J11" s="557"/>
+      <c r="B11" s="554"/>
+      <c r="C11" s="554"/>
+      <c r="D11" s="554"/>
+      <c r="E11" s="554"/>
+      <c r="F11" s="554"/>
+      <c r="G11" s="554"/>
+      <c r="H11" s="554"/>
+      <c r="I11" s="554"/>
+      <c r="J11" s="554"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="556" t="s">
+      <c r="A12" s="553" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="556"/>
-      <c r="C12" s="556"/>
-      <c r="D12" s="556"/>
-      <c r="E12" s="556"/>
-      <c r="F12" s="556"/>
-      <c r="G12" s="556"/>
-      <c r="H12" s="556"/>
-      <c r="I12" s="556"/>
-      <c r="J12" s="556"/>
+      <c r="B12" s="553"/>
+      <c r="C12" s="553"/>
+      <c r="D12" s="553"/>
+      <c r="E12" s="553"/>
+      <c r="F12" s="553"/>
+      <c r="G12" s="553"/>
+      <c r="H12" s="553"/>
+      <c r="I12" s="553"/>
+      <c r="J12" s="553"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="558" t="str">
+      <c r="A13" s="555" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="B13" s="557"/>
-      <c r="C13" s="557"/>
-      <c r="D13" s="557"/>
-      <c r="E13" s="557"/>
-      <c r="F13" s="557"/>
-      <c r="G13" s="557"/>
-      <c r="H13" s="557"/>
-      <c r="I13" s="557"/>
-      <c r="J13" s="557"/>
+      <c r="B13" s="554"/>
+      <c r="C13" s="554"/>
+      <c r="D13" s="554"/>
+      <c r="E13" s="554"/>
+      <c r="F13" s="554"/>
+      <c r="G13" s="554"/>
+      <c r="H13" s="554"/>
+      <c r="I13" s="554"/>
+      <c r="J13" s="554"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10874,507 +10878,507 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="559" t="s">
+      <c r="A22" s="556" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="559" t="s">
+      <c r="B22" s="556" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="559"/>
-      <c r="D22" s="559"/>
-      <c r="E22" s="559" t="s">
+      <c r="C22" s="556"/>
+      <c r="D22" s="556"/>
+      <c r="E22" s="556" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="559"/>
-      <c r="G22" s="560" t="s">
+      <c r="F22" s="556"/>
+      <c r="G22" s="558" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="559" t="s">
+      <c r="H22" s="556" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="559"/>
-      <c r="J22" s="559"/>
+      <c r="I22" s="556"/>
+      <c r="J22" s="556"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="559"/>
-      <c r="B23" s="559"/>
-      <c r="C23" s="559"/>
-      <c r="D23" s="559"/>
-      <c r="E23" s="559"/>
-      <c r="F23" s="559"/>
-      <c r="G23" s="560"/>
-      <c r="H23" s="559"/>
-      <c r="I23" s="559"/>
-      <c r="J23" s="559"/>
+      <c r="A23" s="556"/>
+      <c r="B23" s="556"/>
+      <c r="C23" s="556"/>
+      <c r="D23" s="556"/>
+      <c r="E23" s="556"/>
+      <c r="F23" s="556"/>
+      <c r="G23" s="558"/>
+      <c r="H23" s="556"/>
+      <c r="I23" s="556"/>
+      <c r="J23" s="556"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="532">
+      <c r="A24" s="530">
         <v>1</v>
       </c>
-      <c r="B24" s="553" t="s">
+      <c r="B24" s="550" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="554"/>
-      <c r="D24" s="555"/>
-      <c r="E24" s="534" t="str">
+      <c r="C24" s="551"/>
+      <c r="D24" s="552"/>
+      <c r="E24" s="535" t="str">
         <f>Данные!C14</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F24" s="535"/>
-      <c r="G24" s="538">
+      <c r="F24" s="536"/>
+      <c r="G24" s="539">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="540" t="s">
+      <c r="H24" s="541" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="541"/>
-      <c r="J24" s="542"/>
+      <c r="I24" s="542"/>
+      <c r="J24" s="543"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="533"/>
-      <c r="B25" s="549" t="str">
+      <c r="A25" s="531"/>
+      <c r="B25" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C25" s="550"/>
-      <c r="D25" s="551"/>
-      <c r="E25" s="552"/>
-      <c r="F25" s="537"/>
-      <c r="G25" s="539"/>
-      <c r="H25" s="543"/>
-      <c r="I25" s="544"/>
-      <c r="J25" s="545"/>
+      <c r="C25" s="548"/>
+      <c r="D25" s="549"/>
+      <c r="E25" s="557"/>
+      <c r="F25" s="538"/>
+      <c r="G25" s="540"/>
+      <c r="H25" s="544"/>
+      <c r="I25" s="545"/>
+      <c r="J25" s="546"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="532">
+      <c r="A26" s="530">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="546" t="s">
+      <c r="B26" s="532" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="547"/>
-      <c r="D26" s="548"/>
-      <c r="E26" s="534" t="str">
+      <c r="C26" s="533"/>
+      <c r="D26" s="534"/>
+      <c r="E26" s="535" t="str">
         <f>Данные!C15</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F26" s="535"/>
-      <c r="G26" s="538">
+      <c r="F26" s="536"/>
+      <c r="G26" s="539">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="540"/>
-      <c r="I26" s="541"/>
-      <c r="J26" s="542"/>
+      <c r="H26" s="541"/>
+      <c r="I26" s="542"/>
+      <c r="J26" s="543"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="533"/>
-      <c r="B27" s="549" t="str">
+      <c r="A27" s="531"/>
+      <c r="B27" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C27" s="550"/>
-      <c r="D27" s="551"/>
-      <c r="E27" s="552"/>
-      <c r="F27" s="537"/>
-      <c r="G27" s="539"/>
-      <c r="H27" s="543"/>
-      <c r="I27" s="544"/>
-      <c r="J27" s="545"/>
+      <c r="C27" s="548"/>
+      <c r="D27" s="549"/>
+      <c r="E27" s="557"/>
+      <c r="F27" s="538"/>
+      <c r="G27" s="540"/>
+      <c r="H27" s="544"/>
+      <c r="I27" s="545"/>
+      <c r="J27" s="546"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="532">
+      <c r="A28" s="530">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="546" t="s">
+      <c r="B28" s="532" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="547"/>
-      <c r="D28" s="548"/>
-      <c r="E28" s="534" t="str">
+      <c r="C28" s="533"/>
+      <c r="D28" s="534"/>
+      <c r="E28" s="535" t="str">
         <f>Данные!C16</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F28" s="535"/>
-      <c r="G28" s="538">
+      <c r="F28" s="536"/>
+      <c r="G28" s="539">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="540"/>
-      <c r="I28" s="541"/>
-      <c r="J28" s="542"/>
+      <c r="H28" s="541"/>
+      <c r="I28" s="542"/>
+      <c r="J28" s="543"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="533"/>
-      <c r="B29" s="549" t="str">
+      <c r="A29" s="531"/>
+      <c r="B29" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C29" s="550"/>
-      <c r="D29" s="551"/>
-      <c r="E29" s="552"/>
-      <c r="F29" s="537"/>
-      <c r="G29" s="539"/>
-      <c r="H29" s="543"/>
-      <c r="I29" s="544"/>
-      <c r="J29" s="545"/>
+      <c r="C29" s="548"/>
+      <c r="D29" s="549"/>
+      <c r="E29" s="557"/>
+      <c r="F29" s="538"/>
+      <c r="G29" s="540"/>
+      <c r="H29" s="544"/>
+      <c r="I29" s="545"/>
+      <c r="J29" s="546"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="532">
+      <c r="A30" s="530">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="546" t="s">
+      <c r="B30" s="532" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="547"/>
-      <c r="D30" s="548"/>
-      <c r="E30" s="534" t="str">
+      <c r="C30" s="533"/>
+      <c r="D30" s="534"/>
+      <c r="E30" s="535" t="str">
         <f>Данные!C17</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F30" s="535"/>
-      <c r="G30" s="538">
+      <c r="F30" s="536"/>
+      <c r="G30" s="539">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="540"/>
-      <c r="I30" s="541"/>
-      <c r="J30" s="542"/>
+      <c r="H30" s="541"/>
+      <c r="I30" s="542"/>
+      <c r="J30" s="543"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="533"/>
-      <c r="B31" s="549" t="str">
+      <c r="A31" s="531"/>
+      <c r="B31" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C31" s="550"/>
-      <c r="D31" s="551"/>
-      <c r="E31" s="536"/>
-      <c r="F31" s="537"/>
-      <c r="G31" s="539"/>
-      <c r="H31" s="543"/>
-      <c r="I31" s="544"/>
-      <c r="J31" s="545"/>
+      <c r="C31" s="548"/>
+      <c r="D31" s="549"/>
+      <c r="E31" s="537"/>
+      <c r="F31" s="538"/>
+      <c r="G31" s="540"/>
+      <c r="H31" s="544"/>
+      <c r="I31" s="545"/>
+      <c r="J31" s="546"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="532">
+      <c r="A32" s="530">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="546" t="s">
+      <c r="B32" s="532" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="547"/>
-      <c r="D32" s="548"/>
-      <c r="E32" s="534" t="str">
+      <c r="C32" s="533"/>
+      <c r="D32" s="534"/>
+      <c r="E32" s="535" t="str">
         <f>Данные!C18</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F32" s="535"/>
-      <c r="G32" s="538">
+      <c r="F32" s="536"/>
+      <c r="G32" s="539">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="540"/>
-      <c r="I32" s="541"/>
-      <c r="J32" s="542"/>
+      <c r="H32" s="541"/>
+      <c r="I32" s="542"/>
+      <c r="J32" s="543"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="533"/>
-      <c r="B33" s="549" t="str">
+      <c r="A33" s="531"/>
+      <c r="B33" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C33" s="550"/>
-      <c r="D33" s="551"/>
-      <c r="E33" s="536"/>
-      <c r="F33" s="537"/>
-      <c r="G33" s="539"/>
-      <c r="H33" s="543"/>
-      <c r="I33" s="544"/>
-      <c r="J33" s="545"/>
+      <c r="C33" s="548"/>
+      <c r="D33" s="549"/>
+      <c r="E33" s="537"/>
+      <c r="F33" s="538"/>
+      <c r="G33" s="540"/>
+      <c r="H33" s="544"/>
+      <c r="I33" s="545"/>
+      <c r="J33" s="546"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="532">
+      <c r="A34" s="530">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="546" t="s">
+      <c r="B34" s="532" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="547"/>
-      <c r="D34" s="548"/>
-      <c r="E34" s="534" t="str">
+      <c r="C34" s="533"/>
+      <c r="D34" s="534"/>
+      <c r="E34" s="535" t="str">
         <f>Данные!C19</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F34" s="535"/>
-      <c r="G34" s="538">
+      <c r="F34" s="536"/>
+      <c r="G34" s="539">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="H34" s="540"/>
-      <c r="I34" s="541"/>
-      <c r="J34" s="542"/>
+      <c r="H34" s="541"/>
+      <c r="I34" s="542"/>
+      <c r="J34" s="543"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="533"/>
-      <c r="B35" s="549" t="str">
+      <c r="A35" s="531"/>
+      <c r="B35" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C35" s="550"/>
-      <c r="D35" s="551"/>
-      <c r="E35" s="536"/>
-      <c r="F35" s="537"/>
-      <c r="G35" s="539"/>
-      <c r="H35" s="543"/>
-      <c r="I35" s="544"/>
-      <c r="J35" s="545"/>
+      <c r="C35" s="548"/>
+      <c r="D35" s="549"/>
+      <c r="E35" s="537"/>
+      <c r="F35" s="538"/>
+      <c r="G35" s="540"/>
+      <c r="H35" s="544"/>
+      <c r="I35" s="545"/>
+      <c r="J35" s="546"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="532">
+      <c r="A36" s="530">
         <f t="shared" ref="A36:A46" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="546" t="s">
+      <c r="B36" s="532" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="547"/>
-      <c r="D36" s="548"/>
-      <c r="E36" s="534" t="str">
+      <c r="C36" s="533"/>
+      <c r="D36" s="534"/>
+      <c r="E36" s="535" t="str">
         <f>Данные!C20</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F36" s="535"/>
-      <c r="G36" s="538">
+      <c r="F36" s="536"/>
+      <c r="G36" s="539">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="540"/>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
+      <c r="H36" s="541"/>
+      <c r="I36" s="542"/>
+      <c r="J36" s="543"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="533"/>
-      <c r="B37" s="549" t="str">
+      <c r="A37" s="531"/>
+      <c r="B37" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C37" s="550"/>
-      <c r="D37" s="551"/>
-      <c r="E37" s="536"/>
-      <c r="F37" s="537"/>
-      <c r="G37" s="539"/>
-      <c r="H37" s="543"/>
-      <c r="I37" s="544"/>
-      <c r="J37" s="545"/>
+      <c r="C37" s="548"/>
+      <c r="D37" s="549"/>
+      <c r="E37" s="537"/>
+      <c r="F37" s="538"/>
+      <c r="G37" s="540"/>
+      <c r="H37" s="544"/>
+      <c r="I37" s="545"/>
+      <c r="J37" s="546"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="532">
+      <c r="A38" s="530">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B38" s="546" t="s">
+      <c r="B38" s="532" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="547"/>
-      <c r="D38" s="548"/>
-      <c r="E38" s="534" t="str">
+      <c r="C38" s="533"/>
+      <c r="D38" s="534"/>
+      <c r="E38" s="535" t="str">
         <f>Данные!C23</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F38" s="535"/>
-      <c r="G38" s="538">
+      <c r="F38" s="536"/>
+      <c r="G38" s="539">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H38" s="540"/>
-      <c r="I38" s="541"/>
-      <c r="J38" s="542"/>
+      <c r="H38" s="541"/>
+      <c r="I38" s="542"/>
+      <c r="J38" s="543"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="533"/>
-      <c r="B39" s="549" t="str">
+      <c r="A39" s="531"/>
+      <c r="B39" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C39" s="550"/>
-      <c r="D39" s="551"/>
-      <c r="E39" s="536"/>
-      <c r="F39" s="537"/>
-      <c r="G39" s="539"/>
-      <c r="H39" s="543"/>
-      <c r="I39" s="544"/>
-      <c r="J39" s="545"/>
+      <c r="C39" s="548"/>
+      <c r="D39" s="549"/>
+      <c r="E39" s="537"/>
+      <c r="F39" s="538"/>
+      <c r="G39" s="540"/>
+      <c r="H39" s="544"/>
+      <c r="I39" s="545"/>
+      <c r="J39" s="546"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="532">
+      <c r="A40" s="530">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B40" s="546" t="s">
+      <c r="B40" s="532" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="547"/>
-      <c r="D40" s="548"/>
-      <c r="E40" s="534" t="str">
+      <c r="C40" s="533"/>
+      <c r="D40" s="534"/>
+      <c r="E40" s="535" t="str">
         <f>Данные!C26</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F40" s="535"/>
-      <c r="G40" s="538">
+      <c r="F40" s="536"/>
+      <c r="G40" s="539">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H40" s="540"/>
-      <c r="I40" s="541"/>
-      <c r="J40" s="542"/>
+      <c r="H40" s="541"/>
+      <c r="I40" s="542"/>
+      <c r="J40" s="543"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="533"/>
-      <c r="B41" s="549" t="str">
+      <c r="A41" s="531"/>
+      <c r="B41" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C41" s="550"/>
-      <c r="D41" s="551"/>
-      <c r="E41" s="536"/>
-      <c r="F41" s="537"/>
-      <c r="G41" s="539"/>
-      <c r="H41" s="543"/>
-      <c r="I41" s="544"/>
-      <c r="J41" s="545"/>
+      <c r="C41" s="548"/>
+      <c r="D41" s="549"/>
+      <c r="E41" s="537"/>
+      <c r="F41" s="538"/>
+      <c r="G41" s="540"/>
+      <c r="H41" s="544"/>
+      <c r="I41" s="545"/>
+      <c r="J41" s="546"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="532">
+      <c r="A42" s="530">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B42" s="546" t="s">
+      <c r="B42" s="532" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="547"/>
-      <c r="D42" s="548"/>
-      <c r="E42" s="534">
+      <c r="C42" s="533"/>
+      <c r="D42" s="534"/>
+      <c r="E42" s="535">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F42" s="535"/>
-      <c r="G42" s="538">
+      <c r="F42" s="536"/>
+      <c r="G42" s="539">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H42" s="540"/>
-      <c r="I42" s="541"/>
-      <c r="J42" s="542"/>
+      <c r="H42" s="541"/>
+      <c r="I42" s="542"/>
+      <c r="J42" s="543"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="533"/>
-      <c r="B43" s="549" t="str">
+      <c r="A43" s="531"/>
+      <c r="B43" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C43" s="550"/>
-      <c r="D43" s="551"/>
-      <c r="E43" s="536"/>
-      <c r="F43" s="537"/>
-      <c r="G43" s="539"/>
-      <c r="H43" s="543"/>
-      <c r="I43" s="544"/>
-      <c r="J43" s="545"/>
+      <c r="C43" s="548"/>
+      <c r="D43" s="549"/>
+      <c r="E43" s="537"/>
+      <c r="F43" s="538"/>
+      <c r="G43" s="540"/>
+      <c r="H43" s="544"/>
+      <c r="I43" s="545"/>
+      <c r="J43" s="546"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="532">
+      <c r="A44" s="530">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B44" s="546" t="s">
+      <c r="B44" s="532" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="547"/>
-      <c r="D44" s="548"/>
-      <c r="E44" s="534" t="str">
+      <c r="C44" s="533"/>
+      <c r="D44" s="534"/>
+      <c r="E44" s="535" t="str">
         <f>Данные!C24</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F44" s="535"/>
-      <c r="G44" s="538">
+      <c r="F44" s="536"/>
+      <c r="G44" s="539">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H44" s="540"/>
-      <c r="I44" s="541"/>
-      <c r="J44" s="542"/>
+      <c r="H44" s="541"/>
+      <c r="I44" s="542"/>
+      <c r="J44" s="543"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="533"/>
-      <c r="B45" s="549" t="str">
+      <c r="A45" s="531"/>
+      <c r="B45" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C45" s="550"/>
-      <c r="D45" s="551"/>
-      <c r="E45" s="536"/>
-      <c r="F45" s="537"/>
-      <c r="G45" s="539"/>
-      <c r="H45" s="543"/>
-      <c r="I45" s="544"/>
-      <c r="J45" s="545"/>
+      <c r="C45" s="548"/>
+      <c r="D45" s="549"/>
+      <c r="E45" s="537"/>
+      <c r="F45" s="538"/>
+      <c r="G45" s="540"/>
+      <c r="H45" s="544"/>
+      <c r="I45" s="545"/>
+      <c r="J45" s="546"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="532">
+      <c r="A46" s="530">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B46" s="546" t="s">
+      <c r="B46" s="532" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="547"/>
-      <c r="D46" s="548"/>
-      <c r="E46" s="534" t="str">
+      <c r="C46" s="533"/>
+      <c r="D46" s="534"/>
+      <c r="E46" s="535" t="str">
         <f>Данные!C21</f>
         <v>XXI-КПМ-27-500-22</v>
       </c>
-      <c r="F46" s="535"/>
-      <c r="G46" s="538">
+      <c r="F46" s="536"/>
+      <c r="G46" s="539">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H46" s="540"/>
-      <c r="I46" s="541"/>
-      <c r="J46" s="542"/>
+      <c r="H46" s="541"/>
+      <c r="I46" s="542"/>
+      <c r="J46" s="543"/>
     </row>
     <row r="47" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="533"/>
-      <c r="B47" s="549" t="str">
+      <c r="A47" s="531"/>
+      <c r="B47" s="547" t="str">
         <f>Данные!$A$32</f>
         <v>(к формокомплекту Бутылка ХXI-КПМ-27-500-22 (Белалко))</v>
       </c>
-      <c r="C47" s="550"/>
-      <c r="D47" s="551"/>
-      <c r="E47" s="536"/>
-      <c r="F47" s="537"/>
-      <c r="G47" s="539"/>
-      <c r="H47" s="543"/>
-      <c r="I47" s="544"/>
-      <c r="J47" s="545"/>
+      <c r="C47" s="548"/>
+      <c r="D47" s="549"/>
+      <c r="E47" s="537"/>
+      <c r="F47" s="538"/>
+      <c r="G47" s="540"/>
+      <c r="H47" s="544"/>
+      <c r="I47" s="545"/>
+      <c r="J47" s="546"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="493"/>
-      <c r="B48" s="494"/>
-      <c r="C48" s="494"/>
-      <c r="D48" s="494"/>
-      <c r="E48" s="495"/>
-      <c r="F48" s="495"/>
-      <c r="G48" s="495"/>
-      <c r="H48" s="496"/>
-      <c r="I48" s="496"/>
-      <c r="J48" s="496"/>
+      <c r="A48" s="491"/>
+      <c r="B48" s="492"/>
+      <c r="C48" s="492"/>
+      <c r="D48" s="492"/>
+      <c r="E48" s="493"/>
+      <c r="F48" s="493"/>
+      <c r="G48" s="493"/>
+      <c r="H48" s="494"/>
+      <c r="I48" s="494"/>
+      <c r="J48" s="494"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="304" t="s">
@@ -11499,12 +11503,66 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="A12:J12"/>
@@ -11519,66 +11577,12 @@
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11636,47 +11640,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="594"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11687,9 +11691,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11708,22 +11712,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="594"/>
-      <c r="J5" s="595"/>
-      <c r="K5" s="517"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="562"/>
+      <c r="J5" s="563"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11734,22 +11738,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="594"/>
-      <c r="J6" s="595"/>
-      <c r="K6" s="517"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="562"/>
+      <c r="J6" s="563"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11760,27 +11764,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="519">
+      <c r="C7" s="565"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="507">
+      <c r="J7" s="568"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12248,12 +12252,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="599" t="s">
+      <c r="B23" s="559" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="600"/>
-      <c r="D23" s="600"/>
-      <c r="E23" s="601"/>
+      <c r="C23" s="560"/>
+      <c r="D23" s="560"/>
+      <c r="E23" s="561"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12275,12 +12279,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="589" t="s">
+      <c r="B24" s="597" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="590"/>
-      <c r="D24" s="590"/>
-      <c r="E24" s="591"/>
+      <c r="C24" s="598"/>
+      <c r="D24" s="598"/>
+      <c r="E24" s="599"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12323,35 +12327,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="564" t="s">
+      <c r="K27" s="572" t="s">
         <v>137</v>
       </c>
-      <c r="L27" s="564"/>
-      <c r="M27" s="564"/>
-      <c r="N27" s="474"/>
-      <c r="O27" s="474"/>
-      <c r="P27" s="490"/>
-      <c r="Q27" s="490"/>
+      <c r="L27" s="572"/>
+      <c r="M27" s="572"/>
+      <c r="N27" s="472"/>
+      <c r="O27" s="472"/>
+      <c r="P27" s="488"/>
+      <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="561" t="s">
+      <c r="N28" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="561"/>
-      <c r="P28" s="562" t="s">
+      <c r="O28" s="569"/>
+      <c r="P28" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="Q28" s="563"/>
+      <c r="Q28" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12368,6 +12365,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12433,50 +12437,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="613">
+      <c r="B2" s="608">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="614"/>
-      <c r="D2" s="615"/>
-      <c r="E2" s="622" t="s">
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="628" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="629"/>
-      <c r="K2" s="632">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="633"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="616"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="618"/>
-      <c r="E3" s="625" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="627"/>
-      <c r="I3" s="630"/>
-      <c r="J3" s="631"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="635"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12487,9 +12491,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="619"/>
-      <c r="C4" s="620"/>
-      <c r="D4" s="621"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12508,22 +12512,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12534,21 +12538,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="510" t="s">
+      <c r="C6" s="631"/>
+      <c r="D6" s="506" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12559,27 +12563,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="519">
+      <c r="C7" s="635"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="507">
+      <c r="J7" s="635"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12768,12 +12772,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="637" t="s">
+      <c r="B14" s="606" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="638"/>
-      <c r="D14" s="638"/>
-      <c r="E14" s="638"/>
+      <c r="C14" s="607"/>
+      <c r="D14" s="607"/>
+      <c r="E14" s="607"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12795,13 +12799,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="599" t="s">
+      <c r="B15" s="559" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="600"/>
-      <c r="D15" s="600"/>
-      <c r="E15" s="600"/>
-      <c r="F15" s="636"/>
+      <c r="C15" s="560"/>
+      <c r="D15" s="560"/>
+      <c r="E15" s="560"/>
+      <c r="F15" s="605"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12820,12 +12824,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="589" t="s">
+      <c r="B16" s="597" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="590"/>
-      <c r="D16" s="590"/>
-      <c r="E16" s="591"/>
+      <c r="C16" s="598"/>
+      <c r="D16" s="598"/>
+      <c r="E16" s="599"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12872,39 +12876,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="564" t="s">
+      <c r="L19" s="572" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="564"/>
-      <c r="N19" s="564"/>
-      <c r="O19" s="474"/>
-      <c r="P19" s="474"/>
-      <c r="Q19" s="490"/>
-      <c r="R19" s="490"/>
+      <c r="M19" s="572"/>
+      <c r="N19" s="572"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="561" t="s">
+      <c r="O20" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="561"/>
-      <c r="Q20" s="562" t="s">
+      <c r="P20" s="569"/>
+      <c r="Q20" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R20" s="563"/>
+      <c r="R20" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12918,6 +12911,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12994,47 +12998,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="594"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13045,9 +13049,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13066,22 +13070,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="594"/>
-      <c r="J5" s="595"/>
-      <c r="K5" s="517"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="562"/>
+      <c r="J5" s="563"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13092,22 +13096,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="594"/>
-      <c r="J6" s="595"/>
-      <c r="K6" s="517"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="562"/>
+      <c r="J6" s="563"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13118,27 +13122,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="519">
+      <c r="C7" s="565"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="507">
+      <c r="J7" s="568"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13600,28 +13604,35 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="639" t="s">
+      <c r="L23" s="637" t="s">
         <v>137</v>
       </c>
-      <c r="M23" s="639"/>
-      <c r="N23" s="639"/>
-      <c r="O23" s="474"/>
-      <c r="P23" s="474"/>
-      <c r="Q23" s="490"/>
-      <c r="R23" s="490"/>
+      <c r="M23" s="637"/>
+      <c r="N23" s="637"/>
+      <c r="O23" s="472"/>
+      <c r="P23" s="472"/>
+      <c r="Q23" s="488"/>
+      <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="561" t="s">
+      <c r="O24" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P24" s="561"/>
-      <c r="Q24" s="562" t="s">
+      <c r="P24" s="569"/>
+      <c r="Q24" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R24" s="563"/>
+      <c r="R24" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13636,13 +13647,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13710,47 +13714,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="594"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13761,9 +13765,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13782,22 +13786,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="594"/>
-      <c r="J5" s="595"/>
-      <c r="K5" s="517"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="562"/>
+      <c r="J5" s="563"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13808,22 +13812,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="594"/>
-      <c r="J6" s="595"/>
-      <c r="K6" s="517"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="562"/>
+      <c r="J6" s="563"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13834,27 +13838,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="519">
+      <c r="C7" s="565"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="507">
+      <c r="J7" s="568"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14126,28 +14130,34 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="639" t="s">
+      <c r="L18" s="637" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="639"/>
-      <c r="N18" s="639"/>
-      <c r="O18" s="474"/>
-      <c r="P18" s="474"/>
-      <c r="Q18" s="490"/>
-      <c r="R18" s="490"/>
+      <c r="M18" s="637"/>
+      <c r="N18" s="637"/>
+      <c r="O18" s="472"/>
+      <c r="P18" s="472"/>
+      <c r="Q18" s="488"/>
+      <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="561" t="s">
+      <c r="O19" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="561"/>
-      <c r="Q19" s="562" t="s">
+      <c r="P19" s="569"/>
+      <c r="Q19" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R19" s="563"/>
+      <c r="R19" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14163,12 +14173,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14240,60 +14244,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="613"/>
-      <c r="C2" s="614"/>
-      <c r="D2" s="615"/>
-      <c r="E2" s="622" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="628" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="629"/>
-      <c r="K2" s="632">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="633"/>
-      <c r="M2" s="641"/>
-      <c r="N2" s="642"/>
-      <c r="O2" s="642"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
-      <c r="R2" s="643"/>
+      <c r="L2" s="628"/>
+      <c r="M2" s="639"/>
+      <c r="N2" s="640"/>
+      <c r="O2" s="640"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
+      <c r="R2" s="641"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="616"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="618"/>
-      <c r="E3" s="625" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="627"/>
-      <c r="I3" s="630"/>
-      <c r="J3" s="631"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="635"/>
-      <c r="M3" s="644"/>
-      <c r="N3" s="645"/>
-      <c r="O3" s="645"/>
-      <c r="P3" s="645"/>
-      <c r="Q3" s="645"/>
-      <c r="R3" s="646"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
+      <c r="M3" s="642"/>
+      <c r="N3" s="643"/>
+      <c r="O3" s="643"/>
+      <c r="P3" s="643"/>
+      <c r="Q3" s="643"/>
+      <c r="R3" s="644"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="619"/>
-      <c r="C4" s="620"/>
-      <c r="D4" s="621"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14302,95 +14306,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="644"/>
-      <c r="N4" s="645"/>
-      <c r="O4" s="645"/>
-      <c r="P4" s="645"/>
-      <c r="Q4" s="645"/>
-      <c r="R4" s="646"/>
+      <c r="M4" s="642"/>
+      <c r="N4" s="643"/>
+      <c r="O4" s="643"/>
+      <c r="P4" s="643"/>
+      <c r="Q4" s="643"/>
+      <c r="R4" s="644"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="518"/>
-      <c r="M5" s="644"/>
-      <c r="N5" s="645"/>
-      <c r="O5" s="645"/>
-      <c r="P5" s="645"/>
-      <c r="Q5" s="645"/>
-      <c r="R5" s="646"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="514"/>
+      <c r="M5" s="642"/>
+      <c r="N5" s="643"/>
+      <c r="O5" s="643"/>
+      <c r="P5" s="643"/>
+      <c r="Q5" s="643"/>
+      <c r="R5" s="644"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="518"/>
-      <c r="M6" s="644"/>
-      <c r="N6" s="645"/>
-      <c r="O6" s="645"/>
-      <c r="P6" s="645"/>
-      <c r="Q6" s="645"/>
-      <c r="R6" s="646"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="514"/>
+      <c r="M6" s="642"/>
+      <c r="N6" s="643"/>
+      <c r="O6" s="643"/>
+      <c r="P6" s="643"/>
+      <c r="Q6" s="643"/>
+      <c r="R6" s="644"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="519">
+      <c r="C7" s="635"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="507">
+      <c r="J7" s="635"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
-      <c r="M7" s="644"/>
-      <c r="N7" s="645"/>
-      <c r="O7" s="645"/>
-      <c r="P7" s="645"/>
-      <c r="Q7" s="645"/>
-      <c r="R7" s="646"/>
+      <c r="L7" s="504"/>
+      <c r="M7" s="642"/>
+      <c r="N7" s="643"/>
+      <c r="O7" s="643"/>
+      <c r="P7" s="643"/>
+      <c r="Q7" s="643"/>
+      <c r="R7" s="644"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14540,36 +14544,36 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="485" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="475"/>
-      <c r="B13" s="476" t="s">
+    <row r="13" spans="1:19" s="483" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="473"/>
+      <c r="B13" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="477"/>
-      <c r="D13" s="478">
+      <c r="C13" s="475"/>
+      <c r="D13" s="476">
         <v>0.03</v>
       </c>
-      <c r="E13" s="478">
+      <c r="E13" s="476">
         <v>0</v>
       </c>
-      <c r="F13" s="479" t="s">
+      <c r="F13" s="477" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="480"/>
-      <c r="I13" s="481"/>
-      <c r="J13" s="481"/>
-      <c r="K13" s="481"/>
-      <c r="L13" s="481"/>
-      <c r="M13" s="482"/>
-      <c r="N13" s="482"/>
-      <c r="O13" s="482"/>
-      <c r="P13" s="482"/>
-      <c r="Q13" s="482"/>
-      <c r="R13" s="483"/>
-      <c r="S13" s="484"/>
+      <c r="H13" s="478"/>
+      <c r="I13" s="479"/>
+      <c r="J13" s="479"/>
+      <c r="K13" s="479"/>
+      <c r="L13" s="479"/>
+      <c r="M13" s="480"/>
+      <c r="N13" s="480"/>
+      <c r="O13" s="480"/>
+      <c r="P13" s="480"/>
+      <c r="Q13" s="480"/>
+      <c r="R13" s="481"/>
+      <c r="S13" s="482"/>
     </row>
     <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14759,12 +14763,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="589" t="s">
+      <c r="B20" s="597" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="590"/>
-      <c r="D20" s="590"/>
-      <c r="E20" s="591"/>
+      <c r="C20" s="598"/>
+      <c r="D20" s="598"/>
+      <c r="E20" s="599"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14809,34 +14813,28 @@
       <c r="B22" s="121"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L23" s="639" t="s">
+      <c r="L23" s="637" t="s">
         <v>137</v>
       </c>
-      <c r="M23" s="639"/>
-      <c r="N23" s="639"/>
-      <c r="O23" s="474"/>
-      <c r="P23" s="474"/>
-      <c r="Q23" s="490"/>
-      <c r="R23" s="490"/>
+      <c r="M23" s="637"/>
+      <c r="N23" s="637"/>
+      <c r="O23" s="472"/>
+      <c r="P23" s="472"/>
+      <c r="Q23" s="488"/>
+      <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O24" s="561" t="s">
+      <c r="O24" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P24" s="561"/>
-      <c r="Q24" s="562" t="s">
+      <c r="P24" s="569"/>
+      <c r="Q24" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R24" s="563"/>
+      <c r="R24" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -14853,6 +14851,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14917,47 +14921,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="613"/>
-      <c r="C2" s="614"/>
-      <c r="D2" s="615"/>
-      <c r="E2" s="622" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="628" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="629"/>
-      <c r="K2" s="632">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="L2" s="633"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="616"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="618"/>
-      <c r="E3" s="625" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="627"/>
-      <c r="I3" s="630"/>
-      <c r="J3" s="631"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="635"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14968,9 +14972,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="619"/>
-      <c r="C4" s="620"/>
-      <c r="D4" s="621"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14989,22 +14993,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="516" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="517"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="518"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15015,22 +15019,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="510" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-27-500-22 (Белалко)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="518"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15041,27 +15045,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="602" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="519">
+      <c r="C7" s="635"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="604"/>
-      <c r="F7" s="604"/>
-      <c r="G7" s="604"/>
-      <c r="H7" s="605"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="507">
+      <c r="J7" s="635"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="508"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15186,36 +15190,36 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="485" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="475"/>
-      <c r="B12" s="486" t="s">
+    <row r="12" spans="1:19" s="483" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="473"/>
+      <c r="B12" s="484" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="487"/>
-      <c r="D12" s="481">
+      <c r="C12" s="485"/>
+      <c r="D12" s="479">
         <v>0</v>
       </c>
-      <c r="E12" s="481">
+      <c r="E12" s="479">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="479" t="s">
+      <c r="F12" s="477" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="488"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="481"/>
-      <c r="K12" s="481"/>
-      <c r="L12" s="481"/>
-      <c r="M12" s="481"/>
-      <c r="N12" s="481"/>
-      <c r="O12" s="481"/>
-      <c r="P12" s="481"/>
-      <c r="Q12" s="481"/>
-      <c r="R12" s="489"/>
-      <c r="S12" s="484"/>
+      <c r="H12" s="486"/>
+      <c r="I12" s="479"/>
+      <c r="J12" s="479"/>
+      <c r="K12" s="479"/>
+      <c r="L12" s="479"/>
+      <c r="M12" s="479"/>
+      <c r="N12" s="479"/>
+      <c r="O12" s="479"/>
+      <c r="P12" s="479"/>
+      <c r="Q12" s="479"/>
+      <c r="R12" s="487"/>
+      <c r="S12" s="482"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15312,12 +15316,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="589" t="s">
+      <c r="B16" s="597" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="590"/>
-      <c r="D16" s="590"/>
-      <c r="E16" s="591"/>
+      <c r="C16" s="598"/>
+      <c r="D16" s="598"/>
+      <c r="E16" s="599"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15362,38 +15366,28 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="639" t="s">
+      <c r="L19" s="637" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="639"/>
-      <c r="N19" s="639"/>
-      <c r="O19" s="474"/>
-      <c r="P19" s="474"/>
-      <c r="Q19" s="490"/>
-      <c r="R19" s="490"/>
+      <c r="M19" s="637"/>
+      <c r="N19" s="637"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="561" t="s">
+      <c r="O20" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="561"/>
-      <c r="Q20" s="562" t="s">
+      <c r="P20" s="569"/>
+      <c r="Q20" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="R20" s="563"/>
+      <c r="R20" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15406,6 +15400,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
